--- a/LVT.T.TP.V.1.0.0.xlsx
+++ b/LVT.T.TP.V.1.0.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Apraksts" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="158">
   <si>
     <t>Identifikātoru atšifrējums:</t>
   </si>
@@ -101,7 +101,453 @@
     <t>Tests</t>
   </si>
   <si>
-    <t xml:space="preserve">Piemērs: </t>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>Startēšana</t>
+  </si>
+  <si>
+    <t>PR.01.</t>
+  </si>
+  <si>
+    <t>Programmas „Tests” startēšana</t>
+  </si>
+  <si>
+    <t>Programmas startēšana</t>
+  </si>
+  <si>
+    <t>TP.STA.01.</t>
+  </si>
+  <si>
+    <t>Piemērs: TP.STA.01.</t>
+  </si>
+  <si>
+    <t>Programmas palaišana uz Windows darbstacijas</t>
+  </si>
+  <si>
+    <t>1) Uz Windows darbstacijas uzstāda programmu
+2) Peles kreisā taustiņa dubultkļikšķis uz Tests.exe saīsnes</t>
+  </si>
+  <si>
+    <t>Peles kreisā taustiņa dubultklikšķis</t>
+  </si>
+  <si>
+    <t>Tiek atvērta programma Tests.exe konsoles logā</t>
+  </si>
+  <si>
+    <t>TZ</t>
+  </si>
+  <si>
+    <t>KZ</t>
+  </si>
+  <si>
+    <t>Testēšanas žurnāls</t>
+  </si>
+  <si>
+    <t>TZ.01.</t>
+  </si>
+  <si>
+    <t>TZ.02.</t>
+  </si>
+  <si>
+    <t>TZ.03.</t>
+  </si>
+  <si>
+    <t>TZ.04.</t>
+  </si>
+  <si>
+    <t>TZ.05.</t>
+  </si>
+  <si>
+    <t>TZ.06.</t>
+  </si>
+  <si>
+    <t>TZ.07.</t>
+  </si>
+  <si>
+    <t>TZ.08.</t>
+  </si>
+  <si>
+    <t>TZ.09.</t>
+  </si>
+  <si>
+    <t>TZ.10.</t>
+  </si>
+  <si>
+    <t>TZ.11.</t>
+  </si>
+  <si>
+    <t>TZ.12.</t>
+  </si>
+  <si>
+    <t>TZ.13.</t>
+  </si>
+  <si>
+    <t>TZ.14.</t>
+  </si>
+  <si>
+    <t>TZ.15.</t>
+  </si>
+  <si>
+    <t>TZ.16.</t>
+  </si>
+  <si>
+    <t>TZ.17.</t>
+  </si>
+  <si>
+    <t>TZ.18.</t>
+  </si>
+  <si>
+    <t>TZ.19.</t>
+  </si>
+  <si>
+    <t>TZ.20.</t>
+  </si>
+  <si>
+    <t>Veiksmīgi</t>
+  </si>
+  <si>
+    <t>Neveiksmīgs</t>
+  </si>
+  <si>
+    <t>Endijs Dārznieks</t>
+  </si>
+  <si>
+    <t>Testa sākšana</t>
+  </si>
+  <si>
+    <t>PR.SAK.01.</t>
+  </si>
+  <si>
+    <t>Programmas "Tests" testa sākšana</t>
+  </si>
+  <si>
+    <t>SAK</t>
+  </si>
+  <si>
+    <t>Sākšana</t>
+  </si>
+  <si>
+    <t>Uz Windows darbstacijas uzstādīta programma "Tests"</t>
+  </si>
+  <si>
+    <t>Jābūt atvērtai/startētai programmai "Tests"</t>
+  </si>
+  <si>
+    <t>Pārbauda testa uzsākšanas iespējas</t>
+  </si>
+  <si>
+    <t>Klaviatūras taustiņš "S"</t>
+  </si>
+  <si>
+    <t>Klaviatūras taustiņš "Enter"</t>
+  </si>
+  <si>
+    <t>Klaviatūras taustiņš "3"</t>
+  </si>
+  <si>
+    <t>1) Nospiest klaviatūras taustiņu "S"</t>
+  </si>
+  <si>
+    <t>1) Nospiest klaviatūras taustiņu "3"</t>
+  </si>
+  <si>
+    <t>1) Nospiest klaviatūras taustiņu "Enter"</t>
+  </si>
+  <si>
+    <t>1) Tiek parādīts testa pirmais jautājums un to atbilžu varianti
+2) Ir iespējams ievadīt no klaviatūras</t>
+  </si>
+  <si>
+    <t>Paziņojuma rādīšanas laikā ievades nepieņemšana</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Ievades nepieņemšana</t>
+  </si>
+  <si>
+    <t>Ievadi no klaviatūras nedrīkst pieņemt paziņojuma rādīšanas laikā</t>
+  </si>
+  <si>
+    <t>1) Piespiest jebkuru klaviatūras taustiņu
+2) Kamēr rādas paziņojums "Katram testa uzdevumam (kopa 10) ir divi pareizi atbilzu varianti!" spiest klaviatūras burtus</t>
+  </si>
+  <si>
+    <t>Vairākārt piepiesti klaviatūras burti</t>
+  </si>
+  <si>
+    <t>1) Paziņojums netiek pārtraukts
+2) Testa pirmajam jautājumam parādoties, atbildes laukumā nav redzams neviens no nospiestajiem burtiem</t>
+  </si>
+  <si>
+    <t>Vairākārt piepiesti klaviatūras cipari</t>
+  </si>
+  <si>
+    <t>Vairākārt piepiests klaviatūras taustiņš "Enter"</t>
+  </si>
+  <si>
+    <t>1) Piespiest jebkuru klaviatūras taustiņu
+2) Kamēr rādas paziņojums "Katram testa uzdevumam (kopa 10) ir divi pareizi atbilzu varianti!" spiest klaviatūras ciparus</t>
+  </si>
+  <si>
+    <t>1) Piespiest jebkuru klaviatūras taustiņu
+2) Kamēr rādas paziņojums "Katram testa uzdevumam (kopa 10) ir divi pareizi atbilzu varianti!" spiest klaviatūras taustiņu "Enter"</t>
+  </si>
+  <si>
+    <t>PR.SAK.02.</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>TP.SAK.T.01.</t>
+  </si>
+  <si>
+    <t>TP.SAK.T.02.</t>
+  </si>
+  <si>
+    <t>TP.SAK.T.03.</t>
+  </si>
+  <si>
+    <t>TP.SAK.IN.01.</t>
+  </si>
+  <si>
+    <t>TP.SAK.IN.02.</t>
+  </si>
+  <si>
+    <t>TP.SAK.IN.03.</t>
+  </si>
+  <si>
+    <t>1) Paziņojums netiek pārtraukts
+2) Testa pirmajam jautājumam parādoties, atbildes laukumā nav redzams neviens no nospiestajiem cipariem</t>
+  </si>
+  <si>
+    <t>1) Paziņojums netiek pārtraukts
+2) Testa pirmajam jautājumam parādoties, kursors atrodas aiz pēdējā redzamā simbola</t>
+  </si>
+  <si>
+    <t>KZ.SAK.IN.01.</t>
+  </si>
+  <si>
+    <t>Burtu ievade no klaviatūras tika pieņemta, pirmajam jautājumam parādoties ir redzami mani nospiestie burti</t>
+  </si>
+  <si>
+    <t>Ciparu ievade no klaviatūras tika pieņemta, pirmajam jautājumam parādoties ir redzami mani nospiestie cipari</t>
+  </si>
+  <si>
+    <t>Taustiņa "Enter" ievade no klaviatūras tika pieņemta, pirmajam jautājumam parādoties, kursors neatrodas aiz pirmā redzamā simbola</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Testa izpilde</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>PR.TI.01.</t>
+  </si>
+  <si>
+    <t>TP.TI.01.</t>
+  </si>
+  <si>
+    <t>Pārbauda testa izpildes iespējas/opcijas un to pareizību</t>
+  </si>
+  <si>
+    <t>1) Piespiest jebkuru klaviatūras pogu, lai uzsāktu testu
+2) Izpildīt visu testu un izvēlēties tikai pareizos atbilžu variantus</t>
+  </si>
+  <si>
+    <t>Klaviatūras ievade, taustiņi "1", "2", "3", "4"</t>
+  </si>
+  <si>
+    <t>1) Nevienu reizi netika parādīts, ka ir nepareiza atbilde un jāmēģina vēlreiz
+2) Tika pabeigts tests
+3) Tiek parādīts paziņojums, ka uz 10 jautājumiem, tika atbildēts ar pirmo reizi</t>
+  </si>
+  <si>
+    <t>1) Piespiest jebkuru klaviatūras pogu, lai uzsāktu testu
+2) Izpildīt visu testu un izvēlēties vispirms nepareizo atbilžu variantu un pēc tam pareizo, katram jautājumam</t>
+  </si>
+  <si>
+    <t>1) Visiem jautājumiem tika parādīts, ka ir nepareiza atbilde un jāmēģina vēlreiz
+2) Tika pabeigts tests
+3) Tiek parādīts paziņojums, ka uz 0 jautājumiem, tika atbildēts ar pirmo reizi</t>
+  </si>
+  <si>
+    <t>TP.TI.02.</t>
+  </si>
+  <si>
+    <t>TP.TI.03.</t>
+  </si>
+  <si>
+    <t>1) Piespiest jebkuru klaviatūras pogu, lai uzsāktu testu
+2) Izpildīt visu testu un izvēlēties pirmajam jautajumam pareizo atbilžu variantu un pārējiem vispirms nepareizo un tad pareizo</t>
+  </si>
+  <si>
+    <t>1) Deviņas reizes tika parādīts, ka ir nepareiza atbilde un jāmēģina vēlreiz
+2) Tika pabeigts tests
+3) Tiek parādīts paziņojums, ka uz vienu jautājumu, tika atbildēts ar pirmo reizi</t>
+  </si>
+  <si>
+    <t>TP.TI.04.</t>
+  </si>
+  <si>
+    <t>TP.TI.05.</t>
+  </si>
+  <si>
+    <t>TP.TI.06.</t>
+  </si>
+  <si>
+    <t>TP.TI.07.</t>
+  </si>
+  <si>
+    <t>TP.TI.08.</t>
+  </si>
+  <si>
+    <t>TP.TI.09.</t>
+  </si>
+  <si>
+    <t>TP.TI.10.</t>
+  </si>
+  <si>
+    <t>TP.TI.11.</t>
+  </si>
+  <si>
+    <t>TP.TI.12.</t>
+  </si>
+  <si>
+    <t>TP.TI.13.</t>
+  </si>
+  <si>
+    <t>Testa jautājumu izpilde</t>
+  </si>
+  <si>
+    <t>Dev-C++ ir jābūt ielādētai un atvērtai programmai "Tests"</t>
+  </si>
+  <si>
+    <t>Pārbauda vai pēc 1. testa jautājuma izpildes programma nostrādā pareizi</t>
+  </si>
+  <si>
+    <t>1) Mainigā "arPirmo" vērtība tiek palielināta par 1, jābūt vērtībai 1
+2) Mainīgā "x" vērtība tiek iestatīta uz 2</t>
+  </si>
+  <si>
+    <t>Pārbauda vai pēc 2. testa jautājuma izpildes programma nostrādā pareizi</t>
+  </si>
+  <si>
+    <t>1) Mainigā "arPirmo" vērtība tiek palielināta par 1, jābūt vērtībai 2
+2) Mainīgā "x" vērtība tiek iestatīta uz 3</t>
+  </si>
+  <si>
+    <t>Pārbauda vai pēc 3. testa jautājuma izpildes programma nostrādā pareizi</t>
+  </si>
+  <si>
+    <t>1) Mainigā "arPirmo" vērtība tiek palielināta par 1, jābūt vērtībai 3
+2) Mainīgā "x" vērtība tiek iestatīta uz 4</t>
+  </si>
+  <si>
+    <t>Pārbauda vai pēc 4. testa jautājuma izpildes programma nostrādā pareizi</t>
+  </si>
+  <si>
+    <t>Pārbauda vai pēc 5. testa jautājuma izpildes programma nostrādā pareizi</t>
+  </si>
+  <si>
+    <t>Pārbauda vai pēc 6. testa jautājuma izpildes programma nostrādā pareizi</t>
+  </si>
+  <si>
+    <t>Pārbauda vai pēc 7. testa jautājuma izpildes programma nostrādā pareizi</t>
+  </si>
+  <si>
+    <t>Pārbauda vai pēc 8. testa jautājuma izpildes programma nostrādā pareizi</t>
+  </si>
+  <si>
+    <t>Pārbauda vai pēc 9. testa jautājuma izpildes programma nostrādā pareizi</t>
+  </si>
+  <si>
+    <t>Pārbauda vai pēc 10. testa jautājuma izpildes programma nostrādā pareizi</t>
+  </si>
+  <si>
+    <t>1) Funkcijā "jautajumi()", switch konstrukcijā, 8. gadījumā pie pirmā if() ielikt Breakpoint
+2) Uzsākt atkļūdošanu
+3) Atbildēt tikai ar pareizajām atbildēm līdz 9. jautājumam</t>
+  </si>
+  <si>
+    <t>1) Mainigā "arPirmo" vērtība tiek palielināta par 1, jābūt vērtībai 4
+2) Mainīgā "x" vērtība tiek iestatīta uz 5</t>
+  </si>
+  <si>
+    <t>1) Mainigā "arPirmo" vērtība tiek palielināta par 1, jābūt vērtībai 5
+2) Mainīgā "x" vērtība tiek iestatīta uz 6</t>
+  </si>
+  <si>
+    <t>1) Mainigā "arPirmo" vērtība tiek palielināta par 1, jābūt vērtībai 6
+2) Mainīgā "x" vērtība tiek iestatīta uz 7</t>
+  </si>
+  <si>
+    <t>1) Mainigā "arPirmo" vērtība tiek palielināta par 1, jābūt vērtībai 7
+2) Mainīgā "x" vērtība tiek iestatīta uz 8</t>
+  </si>
+  <si>
+    <t>1) Mainigā "arPirmo" vērtība tiek palielināta par 1, jābūt vērtībai 8
+2) Mainīgā "x" vērtība tiek iestatīta uz 9</t>
+  </si>
+  <si>
+    <t>1) Mainigā "arPirmo" vērtība tiek palielināta par 1, jābūt vērtībai 9
+2) Mainīgā "x" vērtība tiek iestatīta uz 10</t>
+  </si>
+  <si>
+    <t>1) Mainigā "arPirmo" vērtība tiek palielināta par 1, jābūt vērtībai 10
+2) Mainīgā "x" vērtība nekur no dotā Breakpoint netiek palielināta</t>
+  </si>
+  <si>
+    <t>1) Funkcijā "jautajumi()", switch konstrukcijā, 1. gadījumā pie pirmā if() ielikt Breakpoint
+2) Uzsākt atkļūdošanu
+3) Uzsākt testu un atbildēt uz pirmo jautājumu pareizi</t>
+  </si>
+  <si>
+    <t>1) Funkcijā "jautajumi()", switch konstrukcijā, 2. gadījumā pie pirmā if() ielikt Breakpoint
+2) Uzsākt atkļūdošanu
+3) Uzsākt testu un atbildēt tikai ar pareizajām atbildēm līdz 3. jautājumam</t>
+  </si>
+  <si>
+    <t>1) Funkcijā "jautajumi()", switch konstrukcijā, 3. gadījumā pie pirmā if() ielikt Breakpoint
+2) Uzsākt atkļūdošanu
+3) Uzsākt testu un atbildēt tikai ar pareizajām atbildēm līdz 4. jautājumam</t>
+  </si>
+  <si>
+    <t>1) Funkcijā "jautajumi()", switch konstrukcijā, 4. gadījumā pie pirmā if() ielikt Breakpoint
+2) Uzsākt atkļūdošanu
+3) Uzsākt testu un atbildēt tikai ar pareizajām atbildēm līdz 5. jautājumam</t>
+  </si>
+  <si>
+    <t>1) Funkcijā "jautajumi()", switch konstrukcijā, 5. gadījumā pie pirmā if() ielikt Breakpoint
+2) Uzsākt atkļūdošanu
+3) Uzsākt testu un atbildēt tikai ar pareizajām atbildēm līdz 6. jautājumam</t>
+  </si>
+  <si>
+    <t>1) Funkcijā "jautajumi()", switch konstrukcijā, 6. gadījumā pie pirmā if() ielikt Breakpoint
+2) Uzsākt atkļūdošanu
+3) Uzsākt testu un atbildēt tikai ar pareizajām atbildēm līdz 7. jautājumam</t>
+  </si>
+  <si>
+    <t>1) Funkcijā "jautajumi()", switch konstrukcijā, 7. gadījumā pie pirmā if() ielikt Breakpoint
+2) Uzsākt atkļūdošanu
+3) Uzsākt testu un atbildēt tikai ar pareizajām atbildēm līdz 8. jautājumam</t>
+  </si>
+  <si>
+    <t>1) Funkcijā "jautajumi()", switch konstrukcijā, 9. gadījumā pie pirmā if() ielikt Breakpoint
+2) Uzsākt atkļūdošanu
+3) Uzsākt testu un atbildēt tikai ar pareizajām atbildēm līdz 10. jautājumam</t>
+  </si>
+  <si>
+    <t>1) Funkcijā "jautajumi()", switch konstrukcijā, 10. gadījumā pie pirmā if() ielikt Breakpoint
+2) Uzsākt atkļūdošanu
+3) Uzsākt testu un izpildīt visu pareizi</t>
   </si>
 </sst>
 </file>
@@ -238,7 +684,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -459,11 +905,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -487,9 +1004,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -499,6 +1013,42 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -508,29 +1058,11 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -538,16 +1070,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -559,6 +1094,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -567,15 +1111,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,9 +1399,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -877,34 +1412,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="A4" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -923,20 +1458,76 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -945,9 +1536,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -959,86 +1550,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="34"/>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="34"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A18:B18"/>
+  <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1047,7 +1624,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1067,283 +1644,636 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="22"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="37"/>
+    </row>
+    <row r="3" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="43"/>
+    </row>
+    <row r="5" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="43"/>
+    </row>
+    <row r="9" spans="1:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="34"/>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
+    </row>
+    <row r="13" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="34"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37"/>
+    </row>
+    <row r="19" spans="1:8" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="38"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="40"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1352,7 +2282,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1372,283 +2302,570 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="20" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="22"/>
+      <c r="A3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="15">
+        <v>44360</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="13"/>
+      <c r="A5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="13">
+        <v>44360</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="13"/>
+      <c r="A6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="13">
+        <v>44360</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="12"/>
+      <c r="A7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="13">
+        <v>44360</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="43"/>
+    </row>
+    <row r="9" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="13">
+        <v>44360</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="13">
+        <v>44360</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="13">
+        <v>44360</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+      <c r="A13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="13">
+        <v>44361</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="13">
+        <v>44361</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="13">
+        <v>44361</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="15">
+        <v>44362</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="12"/>
+      <c r="A20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="15">
+        <v>44362</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="13"/>
+      <c r="A21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="15">
+        <v>44362</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="12"/>
+      <c r="A22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="15">
+        <v>44362</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="13"/>
+      <c r="A23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="15">
+        <v>44362</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="13"/>
+      <c r="A24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="15">
+        <v>44362</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="13"/>
+      <c r="A25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="15">
+        <v>44362</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="37"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="A26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="15">
+        <v>44362</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="15">
+        <v>44362</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="15">
+        <v>44362</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="44"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="46"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A26:H26"/>
+  <mergeCells count="7">
+    <mergeCell ref="A29:H29"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
